--- a/assets/planning/Planning_TB_FINAL.xlsx
+++ b/assets/planning/Planning_TB_FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Heig-VD\2021-22\Sem2\TB\report-tb\assets\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C823E7BF-1EEA-417C-9290-08C8EFBD35F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78A4CE1-3DB9-4263-8423-4F743115E558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F59D9D10-3A89-4134-8555-53CD5E65A538}"/>
   </bookViews>
@@ -657,6 +657,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -683,15 +692,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A6" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,43 +1027,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="49" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="49" t="s">
+      <c r="Z1" s="52" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="53"/>
       <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
@@ -1133,8 +1133,8 @@
       <c r="X2" s="12">
         <v>22</v>
       </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -1202,7 +1202,7 @@
         <v>12</v>
       </c>
       <c r="Z4" s="9">
-        <f>ABS(B4-Y4)</f>
+        <f>(Y4-B4)</f>
         <v>0</v>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
         <v>2</v>
       </c>
       <c r="Z5" s="9">
-        <f t="shared" ref="Z5:Z13" si="1">ABS(B5-Y5)</f>
+        <f t="shared" ref="Z5:Z13" si="1">(Y5-B5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="Z9" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="Z10" s="9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="Z11" s="9">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
@@ -1600,7 +1600,7 @@
       <c r="A15" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="47">
         <v>20</v>
       </c>
       <c r="C15" s="6"/>
@@ -1634,8 +1634,8 @@
         <v>16</v>
       </c>
       <c r="Z15" s="9">
-        <f t="shared" ref="Z15:Z16" si="3">ABS(B15-Y15)</f>
-        <v>4</v>
+        <f>(Y15-B15)</f>
+        <v>-4</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -1676,7 +1676,7 @@
         <v>22</v>
       </c>
       <c r="Z16" s="9">
-        <f t="shared" si="3"/>
+        <f>(Y16-B16)</f>
         <v>2</v>
       </c>
     </row>
@@ -1742,11 +1742,11 @@
       <c r="W18" s="6"/>
       <c r="X18" s="8"/>
       <c r="Y18" s="9">
-        <f t="shared" ref="Y18:Y35" si="4">SUM(C18:X18)</f>
+        <f t="shared" ref="Y18:Y35" si="3">SUM(C18:X18)</f>
         <v>1</v>
       </c>
       <c r="Z18" s="9">
-        <f>ABS(B18-Y18)</f>
+        <f>(Y18-B18)</f>
         <v>0</v>
       </c>
     </row>
@@ -1782,11 +1782,11 @@
       <c r="W19" s="6"/>
       <c r="X19" s="8"/>
       <c r="Y19" s="9">
-        <f t="shared" ref="Y19:Y28" si="5">SUM(C19:X19)</f>
+        <f t="shared" ref="Y19:Y28" si="4">SUM(C19:X19)</f>
         <v>3</v>
       </c>
       <c r="Z19" s="9">
-        <f t="shared" ref="Z19:Z28" si="6">ABS(B19-Y19)</f>
+        <f t="shared" ref="Z19:Z28" si="5">(Y19-B19)</f>
         <v>1</v>
       </c>
     </row>
@@ -1826,11 +1826,11 @@
       <c r="W20" s="6"/>
       <c r="X20" s="8"/>
       <c r="Y20" s="9">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="Z20" s="9">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="Z20" s="9">
-        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -1866,12 +1866,12 @@
       <c r="W21" s="6"/>
       <c r="X21" s="8"/>
       <c r="Y21" s="9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="Z21" s="9">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="Z21" s="9">
-        <f t="shared" si="6"/>
-        <v>17</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
@@ -1912,11 +1912,11 @@
         <v>5</v>
       </c>
       <c r="Y22" s="9">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="Z22" s="9">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="Z22" s="9">
-        <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
         <v>2</v>
       </c>
       <c r="Y23" s="9">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Z23" s="9">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="Z23" s="9">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2008,12 +2008,12 @@
         <v>2</v>
       </c>
       <c r="Y24" s="9">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="Z24" s="9">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="Z24" s="9">
-        <f t="shared" si="6"/>
-        <v>19</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
@@ -2058,11 +2058,11 @@
         <v>5</v>
       </c>
       <c r="Y25" s="9">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="Z25" s="9">
         <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="Z25" s="9">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -2108,11 +2108,11 @@
         <v>5</v>
       </c>
       <c r="Y26" s="9">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="Z26" s="9">
         <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="Z26" s="9">
-        <f t="shared" si="6"/>
         <v>9</v>
       </c>
     </row>
@@ -2148,13 +2148,13 @@
         <v>10</v>
       </c>
       <c r="W27" s="6"/>
-      <c r="X27" s="57"/>
+      <c r="X27" s="48"/>
       <c r="Y27" s="9">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="Z27" s="9">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="Z27" s="9">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2178,8 +2178,12 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
+      <c r="P28" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>2</v>
+      </c>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
@@ -2190,49 +2194,49 @@
         <v>1</v>
       </c>
       <c r="Y28" s="9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="Z28" s="9">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="Z28" s="9">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="48"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="51"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="47">
         <v>15</v>
       </c>
       <c r="C30" s="6"/>
@@ -2260,16 +2264,16 @@
       <c r="W30" s="31">
         <v>10</v>
       </c>
-      <c r="X30" s="55">
+      <c r="X30" s="46">
         <v>2</v>
       </c>
       <c r="Y30" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="Z30" s="9">
-        <f>ABS(B30-Y30)</f>
-        <v>2</v>
+        <f>(Y30-B30)</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
@@ -2304,47 +2308,47 @@
       <c r="W31" s="31">
         <v>5</v>
       </c>
-      <c r="X31" s="55">
+      <c r="X31" s="46">
         <v>2</v>
       </c>
       <c r="Y31" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="Z31" s="9">
-        <f>ABS(B31-Y31)</f>
+        <f>(Y31-B31)</f>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="48"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="51"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
@@ -2420,50 +2424,50 @@
         <v>20</v>
       </c>
       <c r="Y33" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="Z33" s="9">
-        <f>ABS(B33-Y33)</f>
+        <f>(Y33-B33)</f>
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="48"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50"/>
+      <c r="Z34" s="51"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="40">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" s="41"/>
       <c r="D35" s="42"/>
@@ -2496,12 +2500,12 @@
         <v>10</v>
       </c>
       <c r="Y35" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="Z35" s="24">
-        <f>ABS(B35-Y35)</f>
-        <v>1</v>
+        <f>(Y35-B35)</f>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
@@ -2509,104 +2513,104 @@
         <v>4</v>
       </c>
       <c r="B36" s="20">
-        <f t="shared" ref="B36:Z36" si="7">SUM(B3:B35)</f>
-        <v>452</v>
+        <f t="shared" ref="B36:Z36" si="6">SUM(B3:B35)</f>
+        <v>450</v>
       </c>
       <c r="C36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="D36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="E36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="F36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="H36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="I36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="J36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="K36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="L36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="M36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="N36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="O36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="P36" s="21">
-        <f t="shared" si="7"/>
-        <v>10</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="Q36" s="21">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>14</v>
       </c>
       <c r="R36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="S36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="T36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="U36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="V36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="W36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="X36" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="Y36" s="21">
-        <f t="shared" si="7"/>
-        <v>456</v>
+        <f t="shared" si="6"/>
+        <v>463</v>
       </c>
       <c r="Z36" s="38">
-        <f t="shared" si="7"/>
-        <v>132</v>
+        <f t="shared" si="6"/>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/assets/planning/Planning_TB_FINAL.xlsx
+++ b/assets/planning/Planning_TB_FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Heig-VD\2021-22\Sem2\TB\report-tb\assets\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78A4CE1-3DB9-4263-8423-4F743115E558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA57C19-97DC-48E6-872B-CE580E32035E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F59D9D10-3A89-4134-8555-53CD5E65A538}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>Pré-étude</t>
   </si>
   <si>
-    <t>Grammaire</t>
-  </si>
-  <si>
     <t>Vscode squellete</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t xml:space="preserve">  Format YAML</t>
+  </si>
+  <si>
+    <t>Grammaire minimale</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="Z1" s="52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>4</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="47">
         <v>20</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B16" s="16">
         <v>20</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4">
         <v>10</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4">
         <v>25</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="4">
         <v>30</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4">
         <v>10</v>
@@ -1997,10 +1997,10 @@
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-      <c r="U24" s="31">
-        <v>2</v>
-      </c>
-      <c r="V24" s="31">
+      <c r="U24" s="7">
+        <v>2</v>
+      </c>
+      <c r="V24" s="7">
         <v>2</v>
       </c>
       <c r="W24" s="6"/>
@@ -2099,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="T26" s="7"/>
-      <c r="U26" s="31">
+      <c r="U26" s="7">
         <v>5</v>
       </c>
       <c r="V26" s="7"/>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="4">
         <v>20</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="50"/>
       <c r="C29" s="50"/>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="47">
         <v>15</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="16">
         <v>15</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="32" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4">
         <v>60</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="40">
         <v>38</v>
@@ -2486,16 +2486,16 @@
       <c r="Q35" s="41"/>
       <c r="R35" s="41"/>
       <c r="S35" s="41"/>
-      <c r="T35" s="43">
+      <c r="T35" s="42">
         <v>10</v>
       </c>
-      <c r="U35" s="43">
+      <c r="U35" s="42">
         <v>8</v>
       </c>
       <c r="V35" s="42">
         <v>8</v>
       </c>
-      <c r="W35" s="42"/>
+      <c r="W35" s="43"/>
       <c r="X35" s="44">
         <v>10</v>
       </c>

--- a/assets/planning/Planning_TB_FINAL.xlsx
+++ b/assets/planning/Planning_TB_FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Heig-VD\2021-22\Sem2\TB\report-tb\assets\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA57C19-97DC-48E6-872B-CE580E32035E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26179CA1-500F-4A0D-B20B-835927EAEACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F59D9D10-3A89-4134-8555-53CD5E65A538}"/>
   </bookViews>
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1909,15 +1909,15 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y22" s="9">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z22" s="9">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
@@ -2055,15 +2055,15 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y25" s="9">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z25" s="9">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
@@ -2105,15 +2105,15 @@
       <c r="V26" s="7"/>
       <c r="W26" s="6"/>
       <c r="X26" s="36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y26" s="9">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Z26" s="9">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
@@ -2415,21 +2415,21 @@
         <v>4</v>
       </c>
       <c r="V33" s="31">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="W33" s="31">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="X33" s="31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Y33" s="9">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="Z33" s="9">
         <f>(Y33-B33)</f>
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
@@ -2594,23 +2594,23 @@
       </c>
       <c r="V36" s="21">
         <f t="shared" si="6"/>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="W36" s="21">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X36" s="21">
         <f t="shared" si="6"/>
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="Y36" s="21">
         <f t="shared" si="6"/>
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="Z36" s="38">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
